--- a/files/workbooks/personal-rankings.xlsx
+++ b/files/workbooks/personal-rankings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tan\Documents\GitHub\dynastyprocess\files\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB503120-FCC9-4DB3-AB07-C0ADA7DF6133}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209C049B-050C-4250-A0EC-E5087CBD0F0A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{7CDC6DE1-E270-482A-B05C-BBBAE56AFE16}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7CDC6DE1-E270-482A-B05C-BBBAE56AFE16}"/>
   </bookViews>
   <sheets>
     <sheet name="database" sheetId="2" r:id="rId1"/>
@@ -6765,7 +6765,7 @@
   <dimension ref="A1:V722"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J105"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25991,8 +25991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAA303B8-82B1-471C-85C5-806A1A2268C3}">
   <dimension ref="A1:S275"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26605,18 +26605,18 @@
         <v>5</v>
       </c>
       <c r="K11" t="s">
-        <v>1661</v>
+        <v>1668</v>
       </c>
       <c r="L11">
         <v>10</v>
       </c>
       <c r="M11">
         <f>INDEX(wr[dynpECR],MATCH(Table15[[#This Row],[player]],wr[player],0))</f>
-        <v>10.6</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="N11">
         <f>IF(Table15[[#This Row],[Rank]]="","",IFERROR(ROUND((Table15[[#This Row],[ECR]]-Table15[[#This Row],[Rank]])/INDEX(wr[dynpSD],MATCH(Table15[[#This Row],[player]],wr[player],0)),2),""))</f>
-        <v>0.27</v>
+        <v>4.76</v>
       </c>
       <c r="P11" t="s">
         <v>1213</v>
@@ -27069,18 +27069,18 @@
         <v>1</v>
       </c>
       <c r="K19" t="s">
-        <v>1668</v>
+        <v>1661</v>
       </c>
       <c r="L19">
         <v>18</v>
       </c>
       <c r="M19">
         <f>INDEX(wr[dynpECR],MATCH(Table15[[#This Row],[player]],wr[player],0))</f>
-        <v>18.100000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="N19">
         <f>IF(Table15[[#This Row],[Rank]]="","",IFERROR(ROUND((Table15[[#This Row],[ECR]]-Table15[[#This Row],[Rank]])/INDEX(wr[dynpSD],MATCH(Table15[[#This Row],[player]],wr[player],0)),2),""))</f>
-        <v>0.06</v>
+        <v>-3.36</v>
       </c>
       <c r="P19" t="s">
         <v>1221</v>
@@ -35285,8 +35285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8265913-2F6E-48F0-A6EF-1CD81D4243A3}">
   <dimension ref="A1:G722"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
